--- a/number_of_pages.xlsx
+++ b/number_of_pages.xlsx
@@ -1,33 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy Chia\Documents\GitHub\NLP-SustainabilityReports-FinancialPerformance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5320C726-BC41-4834-8988-C450E31745CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D607707-2CDE-4855-A039-82B2899E1058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15240" yWindow="7980" windowWidth="21600" windowHeight="11385" activeTab="1"/>
+    <workbookView xWindow="17640" yWindow="630" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="2" r:id="rId1"/>
     <sheet name="number_of_pages" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">number_of_pages!$A$1:$C$207</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">number_of_pages!$A$1:$C$201</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId3"/>
+    <pivotCache cacheId="4" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="41">
   <si>
     <t>Company</t>
   </si>
@@ -155,9 +155,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -637,14 +638,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -691,7 +693,104 @@
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="32">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -705,9 +804,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Jeremy Chia" refreshedDate="44825.936063425928" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="206">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jeremy Chia" refreshedDate="44831.898573958337" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="200" xr:uid="{00000000-000A-0000-FFFF-FFFF02000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:C207" sheet="number_of_pages"/>
+    <worksheetSource ref="A1:C201" sheet="number_of_pages"/>
   </cacheSource>
   <cacheFields count="3">
     <cacheField name="Company" numFmtId="0">
@@ -737,7 +836,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="206">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="200">
   <r>
     <s v="ASCENDAS REAL ESTATE INV TRUST"/>
     <x v="0"/>
@@ -807,36 +906,6 @@
     <s v="CAPITALAND INTEGRATED COMM TR"/>
     <x v="6"/>
     <n v="58"/>
-  </r>
-  <r>
-    <s v="CAPITALAND INVESTMENT LIMITED"/>
-    <x v="0"/>
-    <n v="65"/>
-  </r>
-  <r>
-    <s v="CAPITALAND INVESTMENT LIMITED"/>
-    <x v="1"/>
-    <n v="68"/>
-  </r>
-  <r>
-    <s v="CAPITALAND INVESTMENT LIMITED"/>
-    <x v="2"/>
-    <n v="69"/>
-  </r>
-  <r>
-    <s v="CAPITALAND INVESTMENT LIMITED"/>
-    <x v="3"/>
-    <n v="75"/>
-  </r>
-  <r>
-    <s v="CAPITALAND INVESTMENT LIMITED"/>
-    <x v="4"/>
-    <n v="75"/>
-  </r>
-  <r>
-    <s v="CAPITALAND INVESTMENT LIMITED"/>
-    <x v="5"/>
-    <n v="86"/>
   </r>
   <r>
     <s v="CAPITALAND INVESTMENT LIMITED"/>
@@ -1772,7 +1841,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField showAll="0"/>
@@ -1844,12 +1913,76 @@
   </colItems>
   <dataFields count="6">
     <dataField name="Count of n2" fld="2" subtotal="count" baseField="1" baseItem="0"/>
-    <dataField name="Sum of n" fld="2" baseField="0" baseItem="0"/>
-    <dataField name="Average of n2" fld="2" subtotal="average" baseField="1" baseItem="0"/>
-    <dataField name="Min of n2" fld="2" subtotal="min" baseField="1" baseItem="2"/>
-    <dataField name="Max of n2" fld="2" subtotal="max" baseField="1" baseItem="2"/>
-    <dataField name="StdDev of n2" fld="2" subtotal="stdDev" baseField="1" baseItem="2"/>
+    <dataField name="Sum of n" fld="2" baseField="0" baseItem="0" numFmtId="165"/>
+    <dataField name="Average of n2" fld="2" subtotal="average" baseField="1" baseItem="0" numFmtId="43"/>
+    <dataField name="Min of n2" fld="2" subtotal="min" baseField="1" baseItem="2" numFmtId="165"/>
+    <dataField name="Max of n2" fld="2" subtotal="max" baseField="1" baseItem="2" numFmtId="165"/>
+    <dataField name="StdDev of n2" fld="2" subtotal="stdDev" baseField="1" baseItem="2" numFmtId="43"/>
   </dataFields>
+  <formats count="6">
+    <format dxfId="29">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="5" selected="0">
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="27">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="5">
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="13">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="11">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="3">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -2158,20 +2291,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2181,19 +2316,19 @@
       <c r="B3" t="s">
         <v>36</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2202,22 +2337,22 @@
         <v>2015</v>
       </c>
       <c r="B4" s="3">
-        <v>28</v>
-      </c>
-      <c r="C4" s="3">
-        <v>895</v>
-      </c>
-      <c r="D4" s="4">
-        <v>31.964285714285715</v>
-      </c>
-      <c r="E4" s="3">
+        <v>27</v>
+      </c>
+      <c r="C4" s="4">
+        <v>830</v>
+      </c>
+      <c r="D4" s="5">
+        <v>30.74074074074074</v>
+      </c>
+      <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>140</v>
       </c>
-      <c r="G4" s="4">
-        <v>37.560304245658806</v>
+      <c r="G4" s="5">
+        <v>37.702879498880748</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2225,22 +2360,22 @@
         <v>2016</v>
       </c>
       <c r="B5" s="3">
-        <v>28</v>
-      </c>
-      <c r="C5" s="3">
-        <v>882</v>
-      </c>
-      <c r="D5" s="4">
-        <v>31.5</v>
-      </c>
-      <c r="E5" s="3">
+        <v>27</v>
+      </c>
+      <c r="C5" s="4">
+        <v>814</v>
+      </c>
+      <c r="D5" s="5">
+        <v>30.148148148148149</v>
+      </c>
+      <c r="E5" s="4">
         <v>1</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>104</v>
       </c>
-      <c r="G5" s="4">
-        <v>31.348105264971018</v>
+      <c r="G5" s="5">
+        <v>31.102440794282103</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2248,22 +2383,22 @@
         <v>2017</v>
       </c>
       <c r="B6" s="3">
-        <v>30</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1273</v>
-      </c>
-      <c r="D6" s="4">
-        <v>42.43333333333333</v>
-      </c>
-      <c r="E6" s="3">
+        <v>29</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1204</v>
+      </c>
+      <c r="D6" s="5">
+        <v>41.517241379310342</v>
+      </c>
+      <c r="E6" s="4">
         <v>2</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>154</v>
       </c>
-      <c r="G6" s="4">
-        <v>38.094875511410784</v>
+      <c r="G6" s="5">
+        <v>38.431405209853317</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2271,22 +2406,22 @@
         <v>2018</v>
       </c>
       <c r="B7" s="3">
-        <v>30</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1402</v>
-      </c>
-      <c r="D7" s="4">
-        <v>46.733333333333334</v>
-      </c>
-      <c r="E7" s="3">
+        <v>29</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1327</v>
+      </c>
+      <c r="D7" s="5">
+        <v>45.758620689655174</v>
+      </c>
+      <c r="E7" s="4">
         <v>2</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <v>191</v>
       </c>
-      <c r="G7" s="4">
-        <v>42.464535575103085</v>
+      <c r="G7" s="5">
+        <v>42.873281033774234</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2294,22 +2429,22 @@
         <v>2019</v>
       </c>
       <c r="B8" s="3">
-        <v>30</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1536</v>
-      </c>
-      <c r="D8" s="4">
-        <v>51.2</v>
-      </c>
-      <c r="E8" s="3">
+        <v>29</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1461</v>
+      </c>
+      <c r="D8" s="5">
+        <v>50.379310344827587</v>
+      </c>
+      <c r="E8" s="4">
         <v>2</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>232</v>
       </c>
-      <c r="G8" s="4">
-        <v>46.094655236581502</v>
+      <c r="G8" s="5">
+        <v>46.686961925071799</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2317,22 +2452,22 @@
         <v>2020</v>
       </c>
       <c r="B9" s="3">
-        <v>30</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1938</v>
-      </c>
-      <c r="D9" s="4">
-        <v>64.599999999999994</v>
-      </c>
-      <c r="E9" s="3">
+        <v>29</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1852</v>
+      </c>
+      <c r="D9" s="5">
+        <v>63.862068965517238</v>
+      </c>
+      <c r="E9" s="4">
         <v>4</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
         <v>240</v>
       </c>
-      <c r="G9" s="4">
-        <v>50.657470429787821</v>
+      <c r="G9" s="5">
+        <v>51.389773953531588</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2342,19 +2477,19 @@
       <c r="B10" s="3">
         <v>30</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="4">
         <v>2373</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="5">
         <v>79.099999999999994</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="4">
         <v>2</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="4">
         <v>276</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="5">
         <v>61.522269587299967</v>
       </c>
     </row>
@@ -2363,22 +2498,22 @@
         <v>34</v>
       </c>
       <c r="B11" s="3">
-        <v>206</v>
-      </c>
-      <c r="C11" s="3">
-        <v>10299</v>
-      </c>
-      <c r="D11" s="4">
-        <v>49.995145631067963</v>
-      </c>
-      <c r="E11" s="3">
+        <v>200</v>
+      </c>
+      <c r="C11" s="4">
+        <v>9861</v>
+      </c>
+      <c r="D11" s="5">
+        <v>49.305</v>
+      </c>
+      <c r="E11" s="4">
         <v>1</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="4">
         <v>276</v>
       </c>
-      <c r="G11" s="4">
-        <v>47.23449520526033</v>
+      <c r="G11" s="5">
+        <v>47.754733249581591</v>
       </c>
     </row>
   </sheetData>
@@ -2387,11 +2522,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C207"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="I178" sqref="I178"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A16:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2412,123 +2547,123 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>2015</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B10">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B11">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B12">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2536,205 +2671,205 @@
         <v>4</v>
       </c>
       <c r="B13">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B14">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B15">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B16">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="C16">
-        <v>17</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B17">
         <v>2015</v>
       </c>
       <c r="C17">
-        <v>18</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B18">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C18">
-        <v>19</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B19">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="C19">
-        <v>32</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B20">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="C20">
-        <v>35</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="C21">
-        <v>44</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B22">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="C22">
-        <v>47</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B23">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="C23">
-        <v>56</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B24">
         <v>2015</v>
       </c>
       <c r="C24">
-        <v>65</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="B25">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C25">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B26">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="C26">
-        <v>83</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B27">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="C27">
-        <v>96</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B28">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="C28">
-        <v>104</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B29">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="C29">
-        <v>140</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B30">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B31">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2753,10 +2888,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B33">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -2764,21 +2899,21 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B34">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B35">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -2786,10 +2921,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B36">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -2797,24 +2932,24 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B37">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="C37">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B38">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C38">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -2830,486 +2965,486 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B40">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C40">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B41">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="C41">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B42">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="C42">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B43">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="C43">
-        <v>20</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B44">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="C44">
-        <v>20</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B45">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C45">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B46">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="C46">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B47">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="C47">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B48">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="C48">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B49">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="C49">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B50">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C50">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B51">
         <v>2016</v>
       </c>
       <c r="C51">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B52">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C52">
-        <v>56</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B53">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="C53">
-        <v>68</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B54">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="C54">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B55">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="C55">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B56">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="C56">
-        <v>101</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B57">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C57">
-        <v>104</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B58">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B59">
         <v>2017</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B60">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C60">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B61">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="C61">
-        <v>8</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B62">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="C62">
-        <v>8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B63">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="C63">
-        <v>11</v>
+        <v>164</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B64">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C64">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B65">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C65">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B66">
         <v>2017</v>
       </c>
       <c r="C66">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B67">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C67">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B68">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="C68">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B69">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="C69">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B70">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="C70">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B71">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C71">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B72">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C72">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B73">
         <v>2017</v>
       </c>
       <c r="C73">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B74">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C74">
-        <v>33</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B75">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="C75">
-        <v>44</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B76">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="C76">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B77">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="C77">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B78">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C78">
-        <v>54</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B79">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C79">
-        <v>68</v>
+        <v>101</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B80">
         <v>2017</v>
       </c>
       <c r="C80">
-        <v>69</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B81">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C81">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B82">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="C82">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B83">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="C83">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -3317,98 +3452,98 @@
         <v>15</v>
       </c>
       <c r="B84">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="C84">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B85">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C85">
-        <v>103</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B86">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C86">
-        <v>104</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B87">
         <v>2017</v>
       </c>
       <c r="C87">
-        <v>154</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B88">
         <v>2018</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B89">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C89">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B90">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="C90">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B91">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="C91">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B92">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="C92">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -3416,505 +3551,505 @@
         <v>17</v>
       </c>
       <c r="B93">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C93">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B94">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C94">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B95">
         <v>2018</v>
       </c>
       <c r="C95">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B96">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C96">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B97">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="C97">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B98">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="C98">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B99">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="C99">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B100">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C100">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B101">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C101">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B102">
         <v>2018</v>
       </c>
       <c r="C102">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B103">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C103">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B104">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="C104">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B105">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="C105">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B106">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="C106">
-        <v>44</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B107">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C107">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B108">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C108">
-        <v>52</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B109">
         <v>2018</v>
       </c>
       <c r="C109">
-        <v>59</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B110">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C110">
-        <v>61</v>
+        <v>15</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B111">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="C111">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B112">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="C112">
-        <v>79</v>
+        <v>27</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B113">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="C113">
-        <v>88</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B114">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C114">
-        <v>91</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B115">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C115">
-        <v>119</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B116">
         <v>2018</v>
       </c>
       <c r="C116">
-        <v>123</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B117">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C117">
-        <v>191</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B118">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C118">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B119">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="C119">
-        <v>4</v>
+        <v>51</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B120">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="C120">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B121">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="C121">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B122">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C122">
-        <v>15</v>
+        <v>80</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B123">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C123">
-        <v>18</v>
+        <v>79</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B124">
         <v>2019</v>
       </c>
       <c r="C124">
-        <v>18</v>
+        <v>102</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B125">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C125">
-        <v>19</v>
+        <v>82</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B126">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="C126">
-        <v>23</v>
+        <v>58</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B127">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="C127">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B128">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="C128">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B129">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C129">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B130">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C130">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B131">
         <v>2019</v>
       </c>
       <c r="C131">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B132">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C132">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B133">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="C133">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B134">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="C134">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B135">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="C135">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B136">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C136">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B137">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C137">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B138">
         <v>2019</v>
       </c>
       <c r="C138">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -3922,373 +4057,373 @@
         <v>23</v>
       </c>
       <c r="B139">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C139">
-        <v>68</v>
+        <v>139</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B140">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="C140">
-        <v>70</v>
+        <v>169</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B141">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="C141">
-        <v>72</v>
+        <v>4</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B142">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="C142">
-        <v>75</v>
+        <v>11</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B143">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C143">
-        <v>81</v>
+        <v>12</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B144">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C144">
-        <v>86</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B145">
         <v>2019</v>
       </c>
       <c r="C145">
-        <v>102</v>
+        <v>12</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B146">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C146">
-        <v>128</v>
+        <v>14</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B147">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="C147">
-        <v>232</v>
+        <v>34</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B148">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="C148">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B149">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="C149">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B150">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="C150">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B151">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="C151">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B152">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C152">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B153">
         <v>2020</v>
       </c>
       <c r="C153">
-        <v>19</v>
+        <v>55</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B154">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C154">
-        <v>23</v>
+        <v>89</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B155">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="C155">
-        <v>24</v>
+        <v>56</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B156">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="C156">
-        <v>36</v>
+        <v>56</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B157">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="C157">
-        <v>36</v>
+        <v>68</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B158">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="C158">
-        <v>38</v>
+        <v>61</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B159">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C159">
-        <v>38</v>
+        <v>62</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B160">
         <v>2020</v>
       </c>
       <c r="C160">
-        <v>38</v>
+        <v>65</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B161">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C161">
-        <v>49</v>
+        <v>74</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B162">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="C162">
-        <v>55</v>
+        <v>140</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B163">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="C163">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B164">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="C164">
-        <v>62</v>
+        <v>154</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B165">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="C165">
-        <v>65</v>
+        <v>191</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B166">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C166">
-        <v>70</v>
+        <v>232</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B167">
         <v>2020</v>
       </c>
       <c r="C167">
-        <v>73</v>
+        <v>240</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B168">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C168">
-        <v>82</v>
+        <v>276</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B169">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="C169">
-        <v>84</v>
+        <v>18</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B170">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="C170">
-        <v>86</v>
+        <v>20</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B171">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="C171">
-        <v>90</v>
+        <v>33</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B172">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="C172">
-        <v>97</v>
+        <v>42</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -4296,131 +4431,131 @@
         <v>28</v>
       </c>
       <c r="B173">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C173">
-        <v>110</v>
+        <v>72</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B174">
         <v>2020</v>
       </c>
       <c r="C174">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B175">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C175">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B176">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="C176">
-        <v>144</v>
+        <v>70</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B177">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="C177">
-        <v>240</v>
+        <v>28</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B178">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="C178">
-        <v>2</v>
+        <v>74</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B179">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="C179">
-        <v>6</v>
+        <v>38</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B180">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C180">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B181">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C181">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B182">
         <v>2021</v>
       </c>
       <c r="C182">
-        <v>28</v>
+        <v>70</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B183">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="C183">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B184">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="C184">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -4428,18 +4563,18 @@
         <v>30</v>
       </c>
       <c r="B185">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C185">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B186">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C186">
         <v>38</v>
@@ -4447,239 +4582,173 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B187">
         <v>2021</v>
       </c>
       <c r="C187">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B188">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="C188">
-        <v>40</v>
+        <v>83</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B189">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="C189">
-        <v>51</v>
+        <v>82</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B190">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="C190">
-        <v>51</v>
+        <v>103</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B191">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="C191">
-        <v>58</v>
+        <v>119</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B192">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C192">
-        <v>58</v>
+        <v>81</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B193">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C193">
-        <v>70</v>
+        <v>121</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B194">
         <v>2021</v>
       </c>
       <c r="C194">
-        <v>71</v>
+        <v>123</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B195">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="C195">
-        <v>74</v>
+        <v>4</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B196">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="C196">
-        <v>82</v>
+        <v>4</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
+        <v>32</v>
+      </c>
+      <c r="B197">
+        <v>2017</v>
+      </c>
+      <c r="C197">
         <v>5</v>
-      </c>
-      <c r="B197">
-        <v>2021</v>
-      </c>
-      <c r="C197">
-        <v>86</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B198">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="C198">
-        <v>89</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B199">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C199">
-        <v>95</v>
+        <v>40</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B200">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C200">
-        <v>108</v>
+        <v>36</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B201">
         <v>2021</v>
       </c>
       <c r="C201">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>28</v>
-      </c>
-      <c r="B202">
-        <v>2021</v>
-      </c>
-      <c r="C202">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>6</v>
-      </c>
-      <c r="B203">
-        <v>2021</v>
-      </c>
-      <c r="C203">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>7</v>
-      </c>
-      <c r="B204">
-        <v>2021</v>
-      </c>
-      <c r="C204">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>12</v>
-      </c>
-      <c r="B205">
-        <v>2021</v>
-      </c>
-      <c r="C205">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>23</v>
-      </c>
-      <c r="B206">
-        <v>2021</v>
-      </c>
-      <c r="C206">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>27</v>
-      </c>
-      <c r="B207">
-        <v>2021</v>
-      </c>
-      <c r="C207">
-        <v>276</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C207">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C207">
-      <sortCondition ref="B1:B207"/>
+  <autoFilter ref="A1:C201" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C201">
+      <sortCondition ref="A1:A201"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
